--- a/Output/request1.xlsx
+++ b/Output/request1.xlsx
@@ -199,25 +199,25 @@
     <t>Purchase price - Total Discounts</t>
   </si>
   <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>Hi</t>
+    <t>Data Type Information 2</t>
+  </si>
+  <si>
+    <t>Data Type Information 1.</t>
   </si>
   <si>
     <t>01. Amortized Cost (USD Equivalent)</t>
   </si>
   <si>
-    <t>red</t>
+    <t>Description 1</t>
   </si>
   <si>
     <t>03. Amortized Cost (USD Equivalent)</t>
   </si>
   <si>
-    <t>Testr</t>
-  </si>
-  <si>
-    <t>Test Description.</t>
+    <t>Description 2</t>
+  </si>
+  <si>
+    <t>Description 3</t>
   </si>
   <si>
     <t xml:space="preserve"> If "purchase price of a debt security" &amp;gt; = "face value"   accretion of discount else       adjusted purchase price of a debt security</t>

--- a/Output/request1.xlsx
+++ b/Output/request1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Asset Name</t>
   </si>
@@ -55,49 +55,148 @@
     <t>Complex Relations - Attribute</t>
   </si>
   <si>
+    <t>Amortized Cost (USD Equivalent)</t>
+  </si>
+  <si>
+    <t>CCAR Reporting Community</t>
+  </si>
+  <si>
+    <t>Financial Reporting Data Assets</t>
+  </si>
+  <si>
+    <t>Data Element</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Data Type Information 2</t>
+  </si>
+  <si>
+    <t>is sourced from</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>Output Variables</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Data Type Information 1.</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
     <t>01. Amortized Cost (USD Equivalent)</t>
   </si>
   <si>
-    <t>CCAR Reporting Community</t>
-  </si>
-  <si>
-    <t>Financial Reporting</t>
-  </si>
-  <si>
-    <t>Data Point</t>
+    <t>Input Variables</t>
+  </si>
+  <si>
+    <t>Accretion of discount</t>
+  </si>
+  <si>
+    <t>Test 2</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve"> In general, amortized cost is the purchase price of a debt security adjusted for amortization of premium or accretion of discount if the debt security was purchased at other than par or face value (for more information, refer to the FR Y - 9C Glossary entry for “premiums and discounts”).  </t>
-  </si>
-  <si>
-    <t>is sourced from</t>
-  </si>
-  <si>
-    <t>Amortized Cost (USD Equivalent)</t>
+    <t>Description 1</t>
+  </si>
+  <si>
+    <t>03. Amortized Cost (USD Equivalent)</t>
+  </si>
+  <si>
+    <t>Adjusted purchase price</t>
   </si>
   <si>
     <t>Calculation Rule</t>
   </si>
   <si>
-    <t>Amortized Cost (USD Equivalent)--1. purchase price of a debt security = no: of securities * unit price2. adjusted purchase price of a debt security =  discounts = 10% of purchase price of a debt security (rate variable by Fed)purchase price of a debt security - discounts 3. If "purchase price of a debt security" &amp;gt; = "face value"   accretion of discount else       adjusted purchase price of a debt security</t>
-  </si>
-  <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>Prioritized Attribute</t>
-  </si>
-  <si>
-    <t>Consists of</t>
-  </si>
-  <si>
-    <t>is a part of</t>
-  </si>
-  <si>
-    <t>B.01 — Securities 1 (“Main Schedule”)</t>
+    <t>3. If "purchase price of a debt security" &amp;gt; = "face value"  accretion of discountelse   adjusted purchase price of a debt security</t>
+  </si>
+  <si>
+    <t>Description 2</t>
+  </si>
+  <si>
+    <t>allowed value</t>
+  </si>
+  <si>
+    <t>Face value</t>
+  </si>
+  <si>
+    <t>2. adjusted purchase price of a debt security =  discounts = 10% of purchase price of a debt security (rate variable by Fed)purchase price of a debt security - discounts</t>
+  </si>
+  <si>
+    <t>Description 3</t>
+  </si>
+  <si>
+    <t>allowed value for</t>
+  </si>
+  <si>
+    <t>Purchase price</t>
+  </si>
+  <si>
+    <t>1. purchase price of a debt security = no: of securities * unit price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If "purchase price of a debt security" &amp;gt; = "face value"   accretion of discount else       adjusted purchase price of a debt security</t>
+  </si>
+  <si>
+    <t>allowed value set</t>
+  </si>
+  <si>
+    <t>Data Type Precision</t>
+  </si>
+  <si>
+    <t>applies to</t>
+  </si>
+  <si>
+    <t>Descriptive Example</t>
+  </si>
+  <si>
+    <t>is part of</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>contains</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>represents</t>
+  </si>
+  <si>
+    <t>represented by</t>
+  </si>
+  <si>
+    <t>implemented in</t>
+  </si>
+  <si>
+    <t>implements</t>
+  </si>
+  <si>
+    <t>governed by</t>
+  </si>
+  <si>
+    <t>governs</t>
+  </si>
+  <si>
+    <t>is calculated using</t>
+  </si>
+  <si>
+    <t>is used for calculating</t>
   </si>
 </sst>
 </file>
@@ -437,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -510,73 +609,206 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" t="s"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="G20" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s"/>
+      <c r="H20" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="C2:C20"/>
+    <mergeCell ref="D2:D20"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Output/request1.xlsx
+++ b/Output/request1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Asset Name</t>
   </si>
@@ -55,148 +55,52 @@
     <t>Complex Relations - Attribute</t>
   </si>
   <si>
+    <t>01. # Accounts</t>
+  </si>
+  <si>
+    <t>CCAR Reporting Community</t>
+  </si>
+  <si>
+    <t>Financial Reporting</t>
+  </si>
+  <si>
+    <t>Data Point</t>
+  </si>
+  <si>
+    <t>Prioritized Attribute</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Consists of</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>is a part of</t>
+  </si>
+  <si>
+    <t>A.01 –   International Auto Loan</t>
+  </si>
+  <si>
+    <t>Calculation Rule</t>
+  </si>
+  <si>
+    <t>is sourced from</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>03. Amortized Cost (USD Equivalent)</t>
+  </si>
+  <si>
     <t>Amortized Cost (USD Equivalent)</t>
   </si>
   <si>
-    <t>CCAR Reporting Community</t>
-  </si>
-  <si>
-    <t>Financial Reporting Data Assets</t>
-  </si>
-  <si>
-    <t>Data Element</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>Data Type Information 2</t>
-  </si>
-  <si>
-    <t>is sourced from</t>
-  </si>
-  <si>
-    <t>Derivation</t>
-  </si>
-  <si>
-    <t>Output Variables</t>
-  </si>
-  <si>
-    <t>Background</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Data Type Information 1.</t>
-  </si>
-  <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>01. Amortized Cost (USD Equivalent)</t>
-  </si>
-  <si>
-    <t>Input Variables</t>
-  </si>
-  <si>
-    <t>Accretion of discount</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Description 1</t>
-  </si>
-  <si>
-    <t>03. Amortized Cost (USD Equivalent)</t>
-  </si>
-  <si>
-    <t>Adjusted purchase price</t>
-  </si>
-  <si>
-    <t>Calculation Rule</t>
-  </si>
-  <si>
-    <t>3. If "purchase price of a debt security" &amp;gt; = "face value"  accretion of discountelse   adjusted purchase price of a debt security</t>
-  </si>
-  <si>
-    <t>Description 2</t>
-  </si>
-  <si>
-    <t>allowed value</t>
-  </si>
-  <si>
-    <t>Face value</t>
-  </si>
-  <si>
-    <t>2. adjusted purchase price of a debt security =  discounts = 10% of purchase price of a debt security (rate variable by Fed)purchase price of a debt security - discounts</t>
-  </si>
-  <si>
-    <t>Description 3</t>
-  </si>
-  <si>
-    <t>allowed value for</t>
-  </si>
-  <si>
-    <t>Purchase price</t>
-  </si>
-  <si>
-    <t>1. purchase price of a debt security = no: of securities * unit price</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If "purchase price of a debt security" &amp;gt; = "face value"   accretion of discount else       adjusted purchase price of a debt security</t>
-  </si>
-  <si>
-    <t>allowed value set</t>
-  </si>
-  <si>
-    <t>Data Type Precision</t>
-  </si>
-  <si>
-    <t>applies to</t>
-  </si>
-  <si>
-    <t>Descriptive Example</t>
-  </si>
-  <si>
-    <t>is part of</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>contains</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>represents</t>
-  </si>
-  <si>
-    <t>represented by</t>
-  </si>
-  <si>
-    <t>implemented in</t>
-  </si>
-  <si>
-    <t>implements</t>
-  </si>
-  <si>
-    <t>governed by</t>
-  </si>
-  <si>
-    <t>governs</t>
-  </si>
-  <si>
-    <t>is calculated using</t>
-  </si>
-  <si>
-    <t>is used for calculating</t>
+    <t>B.02 — Securities  2 (“Investment Securities with Designated Accounting Hedges”)</t>
   </si>
 </sst>
 </file>
@@ -536,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -611,204 +515,139 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F3" t="s"/>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s"/>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s"/>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s"/>
     </row>
-    <row r="8" spans="1:13">
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s"/>
-    </row>
     <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="E10" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s"/>
       <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="G13" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="G14" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="G15" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="G16" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s"/>
     </row>
-    <row r="17" spans="1:13">
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" t="s"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="C2:C20"/>
-    <mergeCell ref="D2:D20"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
